--- a/products/identity-personalization/my-va/2.0-redesign/qa/My VA_Samara QA.xlsx
+++ b/products/identity-personalization/my-va/2.0-redesign/qa/My VA_Samara QA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vacostraus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7179AA-8F83-4249-A41C-0E10629EA267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1190534E-F1AA-1F4A-931E-8C33E369C500}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="14500" xr2:uid="{DB36C89F-BDD5-7E41-B8A3-88432A4CB201}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25520" windowHeight="14500" xr2:uid="{DB36C89F-BDD5-7E41-B8A3-88432A4CB201}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="131">
   <si>
     <t>My VA informal QA</t>
   </si>
@@ -412,17 +412,116 @@
     <t>No, ticket already exists — #23073</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Check on this</t>
+    <r>
+      <t xml:space="preserve">Yes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>— Ticket created: #23125</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — Ticket created: #23128</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — Ticket created: #23132</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>— This is likely an issue with staging user data being different across systems.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>— Ticket created: #23133</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — Ticket created: #23134</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — Ticket created: #23135</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -468,6 +567,13 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -537,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -562,7 +668,6 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -880,7 +985,7 @@
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -969,8 +1074,8 @@
       <c r="D8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>125</v>
+      <c r="E8" s="13" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1246,8 +1351,8 @@
       <c r="D33" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>125</v>
+      <c r="E33" s="11" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1285,8 +1390,8 @@
       <c r="B36" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>95</v>
+      <c r="C36" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>96</v>
@@ -1426,8 +1531,8 @@
       <c r="D45" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E45" s="14" t="s">
-        <v>125</v>
+      <c r="E45" s="12" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="8" customFormat="1" ht="40" x14ac:dyDescent="0.25">
@@ -1532,7 +1637,7 @@
         <v>114</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="8" customFormat="1" ht="20" x14ac:dyDescent="0.25">
@@ -1618,8 +1723,8 @@
       <c r="D60" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E60" s="14" t="s">
-        <v>125</v>
+      <c r="E60" s="12" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="8" customFormat="1" ht="20" x14ac:dyDescent="0.25">
@@ -1650,7 +1755,7 @@
         <v>108</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="8" customFormat="1" ht="120" x14ac:dyDescent="0.25">
